--- a/data/byouin_list/org/byouin_list.xlsx
+++ b/data/byouin_list/org/byouin_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\po3filesv07\政策局データ戦略課共用\2024年度\101_データ活用推進班★\202_オープンデータ\2024\★公開中データ（HP・BODIK共通）★\29_病院一覧\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{739EBA6F-79EA-42AA-9EF7-7AF298E58683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6A54985-7B9E-4153-8431-1F09DB113BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="公開データ" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="診療所台帳" localSheetId="0">公開データ!$B$1:$DN$2</definedName>
     <definedName name="診療所台帳">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="755">
   <si>
     <t>施設区分</t>
   </si>
@@ -991,7 +991,7 @@
     <t>木下　裕俊</t>
   </si>
   <si>
-    <t>桜十字熊本東病院</t>
+    <t>くまもと在宅支援病院</t>
   </si>
   <si>
     <t>862-0922</t>
@@ -1030,7 +1030,7 @@
     <t>防衛省</t>
   </si>
   <si>
-    <t>内藤　智子</t>
+    <t>中家　和宏</t>
   </si>
   <si>
     <t>昭和 32年08月01日</t>
@@ -1315,7 +1315,7 @@
     <t>医療法人社団　ピネル会</t>
   </si>
   <si>
-    <t>竹内　良輔</t>
+    <t>竹内　有輔</t>
   </si>
   <si>
     <t>昭和 46年11月30日</t>
@@ -1510,7 +1510,7 @@
     <t>医療法人　尚和会</t>
   </si>
   <si>
-    <t>黒木　明彦</t>
+    <t>下村　康正</t>
   </si>
   <si>
     <t>昭和 27年08月08日</t>
@@ -1849,7 +1849,7 @@
     <t>社会医療法人　寿量会</t>
   </si>
   <si>
-    <t>中島　英親</t>
+    <t>寺本　憲市郎</t>
   </si>
   <si>
     <t>小児形成外科 血管外科 脳神経内科</t>
@@ -2044,7 +2044,7 @@
     <t>伊東歯科口腔病院</t>
   </si>
   <si>
-    <t>861-0851</t>
+    <t>860-0851</t>
   </si>
   <si>
     <t xml:space="preserve">熊本市中央区子飼本町４番１４号 </t>
@@ -2077,7 +2077,7 @@
     <t>熊本市</t>
   </si>
   <si>
-    <t>掃本　誠治</t>
+    <t>三角　郁夫</t>
   </si>
   <si>
     <t>平成 22年03月23日</t>
@@ -2161,7 +2161,7 @@
     <t>社会医療法人令和会</t>
   </si>
   <si>
-    <t>平川　敬</t>
+    <t>生田　拓也</t>
   </si>
   <si>
     <t>血管外科</t>
@@ -2260,9 +2260,6 @@
     <t>坂本　憲史</t>
   </si>
   <si>
-    <t>内視鏡内科</t>
-  </si>
-  <si>
     <t>平成 24年08月01日</t>
   </si>
   <si>
@@ -2278,7 +2275,7 @@
     <t>医療法人　堀尾会</t>
   </si>
   <si>
-    <t>平田　好文</t>
+    <t>小原　健志</t>
   </si>
   <si>
     <t>小児リハビリテーション科 脳神経内科</t>
@@ -2347,7 +2344,7 @@
     <t>社会医療法人社団高野会</t>
   </si>
   <si>
-    <t>髙野　正太</t>
+    <t>辻　順行</t>
   </si>
   <si>
     <t>肛門内科 大腸・肛門リハビリテーション科 緩和ケア内科</t>
@@ -2806,7 +2803,7 @@
   <dimension ref="A1:DN91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="DO4" sqref="DO4"/>
+      <selection activeCell="DH7" sqref="DH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3543,7 +3540,7 @@
         <v>682</v>
       </c>
       <c r="DN3" s="11" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="4" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3715,22 +3712,22 @@
         <v>118</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>728</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>729</v>
       </c>
       <c r="H5" s="9">
         <v>0</v>
@@ -3870,10 +3867,10 @@
         <v>125</v>
       </c>
       <c r="DM5" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="DN5" s="11" t="s">
         <v>730</v>
-      </c>
-      <c r="DN5" s="11" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="6" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -3881,22 +3878,22 @@
         <v>118</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>199</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>735</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>736</v>
       </c>
       <c r="H6" s="9">
         <v>0</v>
@@ -4056,10 +4053,10 @@
         <v>125</v>
       </c>
       <c r="DM6" s="11" t="s">
+        <v>736</v>
+      </c>
+      <c r="DN6" s="11" t="s">
         <v>737</v>
-      </c>
-      <c r="DN6" s="11" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="7" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4067,22 +4064,22 @@
         <v>118</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>709</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>710</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>712</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>713</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>714</v>
       </c>
       <c r="H7" s="9">
         <v>193</v>
@@ -4207,7 +4204,7 @@
       <c r="DL7" s="12"/>
       <c r="DM7" s="11"/>
       <c r="DN7" s="11" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="8" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4215,22 +4212,22 @@
         <v>118</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>715</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>716</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>720</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>721</v>
       </c>
       <c r="H8" s="9">
         <v>0</v>
@@ -4328,7 +4325,9 @@
       <c r="BY8" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="BZ8" s="12"/>
+      <c r="BZ8" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="CA8" s="12"/>
       <c r="CB8" s="12"/>
       <c r="CC8" s="12"/>
@@ -4372,10 +4371,10 @@
         <v>125</v>
       </c>
       <c r="DM8" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="DN8" s="11" t="s">
         <v>722</v>
-      </c>
-      <c r="DN8" s="11" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="9" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4383,22 +4382,22 @@
         <v>118</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>207</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>702</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>703</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>705</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>706</v>
       </c>
       <c r="H9" s="9">
         <v>0</v>
@@ -4534,10 +4533,10 @@
       <c r="DK9" s="12"/>
       <c r="DL9" s="12"/>
       <c r="DM9" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="DN9" s="11" t="s">
         <v>707</v>
-      </c>
-      <c r="DN9" s="11" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="10" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -4582,9 +4581,7 @@
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
-      <c r="P10" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
@@ -4613,9 +4610,7 @@
       <c r="AP10" s="12"/>
       <c r="AQ10" s="12"/>
       <c r="AR10" s="12"/>
-      <c r="AS10" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="AS10" s="12"/>
       <c r="AT10" s="12"/>
       <c r="AU10" s="12"/>
       <c r="AV10" s="12"/>
@@ -4624,7 +4619,9 @@
       <c r="AY10" s="12"/>
       <c r="AZ10" s="12"/>
       <c r="BA10" s="12"/>
-      <c r="BB10" s="12"/>
+      <c r="BB10" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="BC10" s="12"/>
       <c r="BD10" s="12"/>
       <c r="BE10" s="12"/>
@@ -4645,7 +4642,9 @@
       <c r="BT10" s="12"/>
       <c r="BU10" s="12"/>
       <c r="BV10" s="12"/>
-      <c r="BW10" s="12"/>
+      <c r="BW10" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="BX10" s="12"/>
       <c r="BY10" s="12"/>
       <c r="BZ10" s="12"/>
@@ -4688,12 +4687,12 @@
       <c r="DI10" s="12"/>
       <c r="DJ10" s="12"/>
       <c r="DK10" s="12"/>
-      <c r="DL10" s="12"/>
-      <c r="DM10" s="11" t="s">
+      <c r="DL10" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="DM10" s="11"/>
+      <c r="DN10" s="11" t="s">
         <v>700</v>
-      </c>
-      <c r="DN10" s="11" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="11" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -5516,10 +5515,10 @@
         <v>0</v>
       </c>
       <c r="K16" s="9">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="L16" s="9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M16" s="12" t="s">
         <v>125</v>
@@ -5545,9 +5544,7 @@
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
-      <c r="AA16" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="AA16" s="12"/>
       <c r="AB16" s="12"/>
       <c r="AC16" s="12"/>
       <c r="AD16" s="12"/>
@@ -9531,7 +9528,7 @@
       <c r="DL40" s="12"/>
       <c r="DM40" s="11"/>
       <c r="DN40" s="11" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="41" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -9713,7 +9710,7 @@
       </c>
       <c r="DM41" s="11"/>
       <c r="DN41" s="11" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="42" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -10483,7 +10480,9 @@
       <c r="BR46" s="12"/>
       <c r="BS46" s="12"/>
       <c r="BT46" s="12"/>
-      <c r="BU46" s="12"/>
+      <c r="BU46" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="BV46" s="12"/>
       <c r="BW46" s="12" t="s">
         <v>125</v>
@@ -10990,9 +10989,7 @@
       <c r="BW49" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="BX49" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="BX49" s="12"/>
       <c r="BY49" s="12" t="s">
         <v>125</v>
       </c>
@@ -11233,22 +11230,22 @@
         <v>118</v>
       </c>
       <c r="B51" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>746</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="D51" s="9" t="s">
         <v>747</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="E51" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="F51" s="9" t="s">
         <v>749</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="G51" s="9" t="s">
         <v>750</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>751</v>
       </c>
       <c r="H51" s="9">
         <v>0</v>
@@ -11375,7 +11372,7 @@
       <c r="DL51" s="12"/>
       <c r="DM51" s="11"/>
       <c r="DN51" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="52" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11434,9 +11431,7 @@
       <c r="AA52" s="12"/>
       <c r="AB52" s="12"/>
       <c r="AC52" s="12"/>
-      <c r="AD52" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="AD52" s="12"/>
       <c r="AE52" s="12"/>
       <c r="AF52" s="12"/>
       <c r="AG52" s="12"/>
@@ -13241,7 +13236,9 @@
       <c r="BT63" s="12"/>
       <c r="BU63" s="12"/>
       <c r="BV63" s="12"/>
-      <c r="BW63" s="12"/>
+      <c r="BW63" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="BX63" s="12"/>
       <c r="BY63" s="12"/>
       <c r="BZ63" s="12"/>
@@ -16845,22 +16842,22 @@
         <v>118</v>
       </c>
       <c r="B86" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="D86" s="9" t="s">
         <v>740</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="E86" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="F86" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="G86" s="9" t="s">
         <v>743</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>744</v>
       </c>
       <c r="H86" s="9">
         <v>0</v>
@@ -17005,7 +17002,7 @@
       <c r="DL86" s="12"/>
       <c r="DM86" s="11"/>
       <c r="DN86" s="11" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="87" spans="1:118" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -17958,8 +17955,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005D697BBB6C7C71438AA06DE92AE599CC" ma:contentTypeVersion="" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="f36473a6175c50f896b3e1cbc3f13916">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="31AAD03C-A983-4B16-863F-54F1EAB739D9" xmlns:ns3="77e41a71-2e1a-40e6-b4fe-2cfc7a738e36" xmlns:ns4="31aad03c-a983-4b16-863f-54f1eab739d9" xmlns:ns5="b1759036-c6d1-4f23-8159-9e5ddc0da7b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f6313d8d0f967e45b58df0cfae536c6" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005D697BBB6C7C71438AA06DE92AE599CC" ma:contentTypeVersion="" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="a1eafba633277ec00883d4e10cd96e51">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="31AAD03C-A983-4B16-863F-54F1EAB739D9" xmlns:ns3="77e41a71-2e1a-40e6-b4fe-2cfc7a738e36" xmlns:ns4="31aad03c-a983-4b16-863f-54f1eab739d9" xmlns:ns5="b1759036-c6d1-4f23-8159-9e5ddc0da7b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="96273a645e27db515b242c1154665ce1" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="31AAD03C-A983-4B16-863F-54F1EAB739D9"/>
     <xsd:import namespace="77e41a71-2e1a-40e6-b4fe-2cfc7a738e36"/>
     <xsd:import namespace="31aad03c-a983-4b16-863f-54f1eab739d9"/>
@@ -18246,15 +18252,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -18270,7 +18267,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EA674AB-B398-4A1E-8989-7222AB7F3ECF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CCA08CE-E55E-42BA-9CEE-04377D0B8BC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{757071E0-93BE-40DC-A5F8-25A486FBC5DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -18290,16 +18295,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F6050CD-9EDE-4974-9BB2-A8A03FDD9D64}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35A85F85-E350-4528-A2D7-1C5DB622E87D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB4CBF88-C69A-4AD5-9506-F6CA4849FE2B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
